--- a/ind/300.xlsx
+++ b/ind/300.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\download\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24330" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="105">
   <si>
     <t>alpha1</t>
   </si>
@@ -334,12 +339,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -347,20 +352,39 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -383,26 +407,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -444,7 +496,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,9 +528,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,6 +563,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -685,14 +739,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:XFD94"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>250</v>
+      </c>
       <c r="B1" s="1">
         <v>2021</v>
       </c>
@@ -720,16 +779,52 @@
       <c r="J1" s="1">
         <v>2013</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="L1" s="2">
+        <v>120</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -742,8 +837,23 @@
       <c r="I3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="L3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -759,8 +869,17 @@
       <c r="H4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="L4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>102</v>
+      </c>
+      <c r="T4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,62 +889,116 @@
       <c r="H5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>104</v>
+      </c>
+      <c r="T5" t="s">
+        <v>104</v>
+      </c>
+      <c r="U5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="B7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="L8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" t="s">
+        <v>103</v>
+      </c>
+      <c r="T8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +1014,20 @@
       <c r="I9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="L9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" t="s">
+        <v>104</v>
+      </c>
+      <c r="S9" t="s">
+        <v>103</v>
+      </c>
+      <c r="T9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,62 +1037,137 @@
       <c r="J10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
+      <c r="L10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" t="s">
+        <v>103</v>
+      </c>
+      <c r="S10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
+      <c r="C11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
+      <c r="B12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="C13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -920,25 +1180,55 @@
       <c r="H14" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
+      <c r="L14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>103</v>
+      </c>
+      <c r="S14" t="s">
+        <v>102</v>
+      </c>
+      <c r="U14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="B15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -963,8 +1253,23 @@
       <c r="J16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="L16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" t="s">
+        <v>102</v>
+      </c>
+      <c r="S16" t="s">
+        <v>102</v>
+      </c>
+      <c r="U16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -977,8 +1282,20 @@
       <c r="J17" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="L17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
+        <v>101</v>
+      </c>
+      <c r="S17" t="s">
+        <v>102</v>
+      </c>
+      <c r="U17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -988,8 +1305,20 @@
       <c r="J18" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="L18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" t="s">
+        <v>102</v>
+      </c>
+      <c r="T18" t="s">
+        <v>101</v>
+      </c>
+      <c r="U18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -999,13 +1328,28 @@
       <c r="J19" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="L19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" t="s">
+        <v>102</v>
+      </c>
+      <c r="S19" t="s">
+        <v>103</v>
+      </c>
+      <c r="U19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="L20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1024,13 +1368,28 @@
       <c r="J21" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="L21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" t="s">
+        <v>101</v>
+      </c>
+      <c r="O21" t="s">
+        <v>101</v>
+      </c>
+      <c r="S21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="L22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1043,24 +1402,75 @@
       <c r="J23" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="L23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" t="s">
+        <v>101</v>
+      </c>
+      <c r="O23" t="s">
+        <v>103</v>
+      </c>
+      <c r="P23" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>103</v>
+      </c>
+      <c r="R23" t="s">
+        <v>103</v>
+      </c>
+      <c r="T23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J24" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="L24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" t="s">
+        <v>103</v>
+      </c>
+      <c r="N24" t="s">
+        <v>103</v>
+      </c>
+      <c r="T24" t="s">
+        <v>102</v>
+      </c>
+      <c r="U24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D25" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="L25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" t="s">
+        <v>102</v>
+      </c>
+      <c r="O25" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" t="s">
+        <v>103</v>
+      </c>
+      <c r="T25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1076,36 +1486,72 @@
       <c r="J26" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="s">
+      <c r="L26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" t="s">
+        <v>101</v>
+      </c>
+      <c r="O26" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" t="s">
+        <v>102</v>
+      </c>
+      <c r="U26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="C27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="L28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1124,8 +1570,26 @@
       <c r="H29" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="L29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" t="s">
+        <v>102</v>
+      </c>
+      <c r="P29" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>102</v>
+      </c>
+      <c r="S29" t="s">
+        <v>101</v>
+      </c>
+      <c r="U29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1138,8 +1602,20 @@
       <c r="G30" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="L30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" t="s">
+        <v>101</v>
+      </c>
+      <c r="S30" t="s">
+        <v>102</v>
+      </c>
+      <c r="U30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1149,24 +1625,51 @@
       <c r="G31" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="L31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>102</v>
+      </c>
+      <c r="T31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J32" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="L32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" t="s">
+        <v>102</v>
+      </c>
+      <c r="S32" t="s">
+        <v>102</v>
+      </c>
+      <c r="U32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I33" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="L33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1188,8 +1691,20 @@
       <c r="J34" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="L34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" t="s">
+        <v>102</v>
+      </c>
+      <c r="S34" t="s">
+        <v>101</v>
+      </c>
+      <c r="U34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1205,8 +1720,26 @@
       <c r="H35" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="L35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N35" t="s">
+        <v>101</v>
+      </c>
+      <c r="O35" t="s">
+        <v>102</v>
+      </c>
+      <c r="S35" t="s">
+        <v>101</v>
+      </c>
+      <c r="T35" t="s">
+        <v>101</v>
+      </c>
+      <c r="U35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1222,8 +1755,20 @@
       <c r="J36" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="L36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R36" t="s">
+        <v>101</v>
+      </c>
+      <c r="T36" t="s">
+        <v>104</v>
+      </c>
+      <c r="U36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1239,8 +1784,11 @@
       <c r="H37" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="L37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1256,108 +1804,192 @@
       <c r="I38" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="s">
+      <c r="L38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F39" t="s">
-        <v>102</v>
-      </c>
-      <c r="H39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="B39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="s">
+      <c r="L40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" t="s">
-        <v>102</v>
-      </c>
-      <c r="H41" t="s">
-        <v>102</v>
-      </c>
-      <c r="J41" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="s">
+      <c r="B41" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F42" t="s">
-        <v>101</v>
-      </c>
-      <c r="H42" t="s">
-        <v>101</v>
-      </c>
-      <c r="J42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="s">
+      <c r="B42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" t="s">
-        <v>102</v>
-      </c>
-      <c r="H43" t="s">
-        <v>102</v>
-      </c>
-      <c r="I43" t="s">
-        <v>102</v>
-      </c>
-      <c r="J43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="B43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1376,8 +2008,20 @@
       <c r="J44" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="L44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P44" t="s">
+        <v>103</v>
+      </c>
+      <c r="T44" t="s">
+        <v>101</v>
+      </c>
+      <c r="U44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -1390,8 +2034,23 @@
       <c r="I45" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="L45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M45" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>101</v>
+      </c>
+      <c r="S45" t="s">
+        <v>102</v>
+      </c>
+      <c r="T45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -1401,8 +2060,17 @@
       <c r="I46" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="L46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N46" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -1427,42 +2095,90 @@
       <c r="J47" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="s">
+      <c r="L47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M47" t="s">
+        <v>102</v>
+      </c>
+      <c r="O47" t="s">
+        <v>102</v>
+      </c>
+      <c r="T47" t="s">
+        <v>104</v>
+      </c>
+      <c r="U47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" t="s">
-        <v>102</v>
-      </c>
-      <c r="G48" t="s">
-        <v>102</v>
-      </c>
-      <c r="H48" t="s">
-        <v>102</v>
-      </c>
-      <c r="J48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="B48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="L49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1478,8 +2194,23 @@
       <c r="J50" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="L50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O50" t="s">
+        <v>102</v>
+      </c>
+      <c r="P50" t="s">
+        <v>104</v>
+      </c>
+      <c r="T50" t="s">
+        <v>104</v>
+      </c>
+      <c r="U50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -1492,8 +2223,29 @@
       <c r="J51" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="L51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N51" t="s">
+        <v>101</v>
+      </c>
+      <c r="O51" t="s">
+        <v>101</v>
+      </c>
+      <c r="P51" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>101</v>
+      </c>
+      <c r="S51" t="s">
+        <v>102</v>
+      </c>
+      <c r="T51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -1506,16 +2258,28 @@
       <c r="I52" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="L52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P52" t="s">
+        <v>103</v>
+      </c>
+      <c r="U52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I53" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="L53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -1528,34 +2292,67 @@
       <c r="G54" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="s">
+      <c r="L54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O54" t="s">
+        <v>102</v>
+      </c>
+      <c r="P54" t="s">
+        <v>102</v>
+      </c>
+      <c r="S54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" t="s">
-        <v>102</v>
-      </c>
-      <c r="D55" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" t="s">
-        <v>102</v>
-      </c>
-      <c r="F55" t="s">
-        <v>102</v>
-      </c>
-      <c r="H55" t="s">
-        <v>101</v>
-      </c>
-      <c r="I55" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="B55" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -1568,8 +2365,23 @@
       <c r="I56" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="L56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M56" t="s">
+        <v>103</v>
+      </c>
+      <c r="N56" t="s">
+        <v>101</v>
+      </c>
+      <c r="S56" t="s">
+        <v>102</v>
+      </c>
+      <c r="T56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -1582,74 +2394,134 @@
       <c r="J57" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="s">
+      <c r="L57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O57" t="s">
+        <v>103</v>
+      </c>
+      <c r="T57" t="s">
+        <v>101</v>
+      </c>
+      <c r="U57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" t="s">
-        <v>102</v>
-      </c>
-      <c r="F58" t="s">
-        <v>102</v>
-      </c>
-      <c r="G58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="B58" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="L59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="s">
+      <c r="L60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C61" t="s">
-        <v>102</v>
-      </c>
-      <c r="D61" t="s">
-        <v>102</v>
-      </c>
-      <c r="E61" t="s">
-        <v>102</v>
-      </c>
-      <c r="F61" t="s">
-        <v>102</v>
-      </c>
-      <c r="H61" t="s">
-        <v>101</v>
-      </c>
-      <c r="J61" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="C61" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q61" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="S61" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="T61" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="L62" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="L63" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -1662,18 +2534,33 @@
       <c r="J64" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="L64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P64" t="s">
+        <v>102</v>
+      </c>
+      <c r="S64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="L65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="L66" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -1683,50 +2570,83 @@
       <c r="F67" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="L67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D68" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="L68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1" t="s">
+      <c r="L69" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" t="s">
-        <v>102</v>
-      </c>
-      <c r="D70" t="s">
-        <v>102</v>
-      </c>
-      <c r="E70" t="s">
-        <v>102</v>
-      </c>
-      <c r="G70" t="s">
-        <v>102</v>
-      </c>
-      <c r="H70" t="s">
-        <v>102</v>
-      </c>
-      <c r="I70" t="s">
-        <v>102</v>
-      </c>
-      <c r="J70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="B70" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q70" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R70" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S70" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U70" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -1742,8 +2662,32 @@
       <c r="I71" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="L71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M71" t="s">
+        <v>102</v>
+      </c>
+      <c r="N71" t="s">
+        <v>101</v>
+      </c>
+      <c r="O71" t="s">
+        <v>102</v>
+      </c>
+      <c r="R71" t="s">
+        <v>103</v>
+      </c>
+      <c r="S71" t="s">
+        <v>102</v>
+      </c>
+      <c r="T71" t="s">
+        <v>101</v>
+      </c>
+      <c r="U71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -1756,8 +2700,11 @@
       <c r="I72" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="L72" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -1767,8 +2714,20 @@
       <c r="E73" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="L73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N73" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>103</v>
+      </c>
+      <c r="T73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -1778,18 +2737,42 @@
       <c r="E74" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="L74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M74" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>101</v>
+      </c>
+      <c r="R74" t="s">
+        <v>101</v>
+      </c>
+      <c r="T74" t="s">
+        <v>104</v>
+      </c>
+      <c r="U74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="L75" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="L76" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -1808,13 +2791,28 @@
       <c r="J77" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="L77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M77" t="s">
+        <v>102</v>
+      </c>
+      <c r="R77" t="s">
+        <v>101</v>
+      </c>
+      <c r="U77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="L78" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -1824,84 +2822,171 @@
       <c r="G79" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="L79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M79" t="s">
+        <v>102</v>
+      </c>
+      <c r="N79" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>101</v>
+      </c>
+      <c r="R79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="1" t="s">
+      <c r="L80" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
-        <v>102</v>
-      </c>
-      <c r="C81" t="s">
-        <v>102</v>
-      </c>
-      <c r="E81" t="s">
-        <v>102</v>
-      </c>
-      <c r="F81" t="s">
-        <v>102</v>
-      </c>
-      <c r="J81" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="B81" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q81" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R81" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S81" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="T81" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U81" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1" t="s">
+      <c r="L82" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C83" t="s">
-        <v>102</v>
-      </c>
-      <c r="H83" t="s">
-        <v>102</v>
-      </c>
-      <c r="I83" t="s">
-        <v>102</v>
-      </c>
-      <c r="J83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="1" t="s">
+      <c r="C83" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O83" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P83" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="S83" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T83" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
-        <v>102</v>
-      </c>
-      <c r="C84" t="s">
-        <v>102</v>
-      </c>
-      <c r="D84" t="s">
-        <v>102</v>
-      </c>
-      <c r="E84" t="s">
-        <v>102</v>
-      </c>
-      <c r="F84" t="s">
-        <v>102</v>
-      </c>
-      <c r="G84" t="s">
-        <v>102</v>
-      </c>
-      <c r="H84" t="s">
-        <v>102</v>
-      </c>
-      <c r="J84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="B84" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O84" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P84" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q84" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S84" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U84" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -1911,8 +2996,17 @@
       <c r="G85" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="L85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S85" t="s">
+        <v>101</v>
+      </c>
+      <c r="T85" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -1925,59 +3019,113 @@
       <c r="I86" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="L86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M86" t="s">
+        <v>103</v>
+      </c>
+      <c r="O86" t="s">
+        <v>102</v>
+      </c>
+      <c r="P86" t="s">
+        <v>101</v>
+      </c>
+      <c r="S86" t="s">
+        <v>102</v>
+      </c>
+      <c r="U86" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="1" t="s">
+      <c r="L87" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
-        <v>101</v>
-      </c>
-      <c r="C88" t="s">
-        <v>104</v>
-      </c>
-      <c r="D88" t="s">
-        <v>101</v>
-      </c>
-      <c r="F88" t="s">
-        <v>104</v>
-      </c>
-      <c r="I88" t="s">
-        <v>104</v>
-      </c>
-      <c r="J88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="1" t="s">
+      <c r="B88" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q88" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="U88" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C89" t="s">
-        <v>102</v>
-      </c>
-      <c r="E89" t="s">
-        <v>102</v>
-      </c>
-      <c r="F89" t="s">
-        <v>102</v>
-      </c>
-      <c r="G89" t="s">
-        <v>102</v>
-      </c>
-      <c r="H89" t="s">
-        <v>102</v>
-      </c>
-      <c r="J89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="C89" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q89" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="S89" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="U89" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -1987,8 +3135,17 @@
       <c r="J90" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="L90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M90" t="s">
+        <v>102</v>
+      </c>
+      <c r="O90" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -1998,16 +3155,40 @@
       <c r="J91" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="L91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N91" t="s">
+        <v>101</v>
+      </c>
+      <c r="P91" t="s">
+        <v>102</v>
+      </c>
+      <c r="T91" t="s">
+        <v>103</v>
+      </c>
+      <c r="U91" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="L92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S92" t="s">
+        <v>102</v>
+      </c>
+      <c r="U92" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -2017,38 +3198,80 @@
       <c r="I93" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="1" t="s">
+      <c r="L93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D94" t="s">
-        <v>102</v>
-      </c>
-      <c r="G94" t="s">
-        <v>102</v>
-      </c>
-      <c r="H94" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="1" t="s">
+      <c r="D94" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O94" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="S94" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T94" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="U94" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
-        <v>102</v>
-      </c>
-      <c r="J95" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="B95" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q95" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S95" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="T95" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="U95" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="L96" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -2058,28 +3281,61 @@
       <c r="F97" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
-      <c r="A98" s="1" t="s">
+      <c r="L97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N97" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>103</v>
+      </c>
+      <c r="R97" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C98" t="s">
-        <v>102</v>
-      </c>
-      <c r="E98" t="s">
-        <v>102</v>
-      </c>
-      <c r="F98" t="s">
-        <v>102</v>
-      </c>
-      <c r="G98" t="s">
-        <v>102</v>
-      </c>
-      <c r="J98" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="C98" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O98" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P98" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q98" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="R98" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="S98" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -2092,41 +3348,91 @@
       <c r="J99" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="L99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N99" t="s">
+        <v>103</v>
+      </c>
+      <c r="O99" t="s">
+        <v>102</v>
+      </c>
+      <c r="P99" t="s">
+        <v>103</v>
+      </c>
+      <c r="T99" t="s">
+        <v>103</v>
+      </c>
+      <c r="U99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="L100" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J101" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="A102" s="1" t="s">
+      <c r="L101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P101" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D102" t="s">
-        <v>101</v>
-      </c>
-      <c r="E102" t="s">
-        <v>101</v>
-      </c>
-      <c r="G102" t="s">
-        <v>102</v>
-      </c>
-      <c r="H102" t="s">
-        <v>102</v>
-      </c>
-      <c r="J102" t="s">
+      <c r="D102" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O102" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="P102" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q102" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="R102" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="U102" s="6" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>